--- a/ивентики.xlsx
+++ b/ивентики.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SteamLibrary\steamapps\workshop\content\394360\3329420560\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SuperSmekta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57980CD1-99D3-4B98-B689-767820CA6F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F6BA9B-0269-4B3D-BE4C-DBCAF71C7D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ну тип чтоб ивентики не наслаивались хорошо бы так сделать</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>кризис конца игры?</t>
+  </si>
+  <si>
+    <t>объединение северной четверти европы под гамбургом</t>
   </si>
 </sst>
 </file>
@@ -220,18 +223,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Контрольная ячейка" xfId="3" builtinId="23"/>
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,7 +518,7 @@
   <dimension ref="A2:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,6 +727,11 @@
       <c r="A8">
         <v>1940</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:25" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -762,6 +773,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D8:F8"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
